--- a/urls_geral.xlsx
+++ b/urls_geral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenor\Documents\thestreamremainsthesame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18D3AB-BEFC-4D25-9082-2C4A8AF05FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C780864-58D4-459E-BAB2-E1CF843F02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="1420" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="1420" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced.m3u8" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>reduced.m3u8</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Yo! MTV Raps Classic</t>
+  </si>
+  <si>
+    <t>RockTV</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1683,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -2036,66 +2039,71 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
         <v>154</v>
       </c>
     </row>

--- a/urls_geral.xlsx
+++ b/urls_geral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="reduced.m3u8" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t xml:space="preserve">reduced.m3u8</t>
   </si>
@@ -207,48 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">merged+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/m/w5798zzzz1hzxw38k4n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merged+4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prime+git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/3m97ypeg3qf53gq4ndxq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nas nuvens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sports-git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/jq2zy914zghw15q6yxr5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lib.bz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/jwmzn18r49fk9jd2y721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://u.m3uiptv.com/wp-content/plugins/download-attachments/includes/download.php?id=HyR3nGtbSkqOv4WMBn4wMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/5g28ne1gjpsvdwk5nzpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hotmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://u.m3uiptv.com/wp-content/plugins/download-attachments/includes/download.php?id=M93Oz32LSBA8sx4v7xOR5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m3u4u.com/m3u/p87vnrz685f46xr5n41j</t>
   </si>
   <si>
     <t xml:space="preserve">canais</t>
@@ -682,7 +640,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:C11 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,13 +699,13 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A6:C11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.85"/>
   </cols>
   <sheetData>
@@ -806,12 +764,12 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="1" sqref="A6:C11 A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,14 +995,14 @@
   </sheetPr>
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,69 +1048,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
     </row>
@@ -1577,7 +1478,7 @@
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+      <selection pane="topLeft" activeCell="A70" activeCellId="1" sqref="A6:C11 A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1587,412 +1488,412 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/urls_geral.xlsx
+++ b/urls_geral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f57ad538d9ab18/Documentos/GitHub/thestreamremainsthesame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_C20411C67208E67304C57D0D59D63961766CF9B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CD66FA-A83D-42E5-9EE7-551F383763D0}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_C20411C67208E67304C57D0D59D63961766CF9B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95C2D01-9A6D-4448-A897-E66CAA2C02A3}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18940" yWindow="11050" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced.m3u8" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,6 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -737,10 +738,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -1664,7 +1661,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2093,9 +2090,10 @@
     <hyperlink ref="A38" r:id="rId37" xr:uid="{F642F1B6-1ED7-41EC-AD81-0A02C5718240}"/>
     <hyperlink ref="A39" r:id="rId38" xr:uid="{70B45AF7-3056-46E4-B475-D9D750C8F955}"/>
     <hyperlink ref="A40" r:id="rId39" xr:uid="{CF04C7CF-810F-49AB-97F2-AD55349A7EE9}"/>
+    <hyperlink ref="A46" r:id="rId40" xr:uid="{0A2521BB-8D6B-4EF8-8511-A2D2907B2D87}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>

--- a/urls_geral.xlsx
+++ b/urls_geral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f57ad538d9ab18/Documentos/GitHub/thestreamremainsthesame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_C20411C67208E67304C57D0D59D63961766CF9B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95C2D01-9A6D-4448-A897-E66CAA2C02A3}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_C20411C67208E67304C57D0D59D63961766CF9B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5C800F-8A7E-4D75-A331-2F5156BA6408}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="11050" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5510" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reduced.m3u8" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
   <si>
     <t>reduced.m3u8</t>
   </si>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>https://www.apsattv.com/ssungneth.m3u</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/tenorioabs/thestreamremainsthesame/main/epg-pt.xml</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LITUATUI/M3UPT/main/M3U/M3UPT.m3u</t>
+  </si>
+  <si>
+    <t>https://iptv-org.github.io/iptv/index.m3u</t>
+  </si>
+  <si>
+    <t>https://iptv-org.github.io/iptv/categories/music.m3u</t>
   </si>
 </sst>
 </file>
@@ -738,6 +750,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1165,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,6 +1395,11 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,7 +1687,19 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
